--- a/data/trans_orig/P28$madre_2012-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P28$madre_2012-Provincia-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4A09A3C-6F6E-4D3B-9574-435F54EE0A42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37DE5FB3-9716-4E4D-B383-9DD8868F35BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D5F50958-AAC4-4D33-BCDC-F0AEB7117ADB}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{953CFF74-73A9-4BF4-88A9-C6CCCBCA5021}"/>
   </bookViews>
   <sheets>
     <sheet name="2012" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="363">
-  <si>
-    <t>Población según persona que fumaba habitualmente en el hogar donde se crió en 2012</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="473" uniqueCount="400">
+  <si>
+    <t>Población según persona que fumaba habitualmente en el hogar donde se crió (multirrespuesta) en 2012</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -65,21 +65,153 @@
     <t>Madre</t>
   </si>
   <si>
-    <t>—%</t>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>15,25%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>10,15%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
   </si>
   <si>
     <t>Padre</t>
   </si>
   <si>
+    <t>61,32%</t>
+  </si>
+  <si>
+    <t>54,92%</t>
+  </si>
+  <si>
+    <t>66,75%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>54,16%</t>
+  </si>
+  <si>
+    <t>66,35%</t>
+  </si>
+  <si>
+    <t>60,93%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
+  </si>
+  <si>
     <t>Yo</t>
   </si>
   <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
     <t>Otro</t>
   </si>
   <si>
+    <t>13,38%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>13,49%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>8,83%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
     <t>Nadie</t>
   </si>
   <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>23,85%</t>
+  </si>
+  <si>
+    <t>35,46%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>27,07%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
     <t>Cadiz</t>
   </si>
   <si>
@@ -122,9 +254,6 @@
     <t>58,72%</t>
   </si>
   <si>
-    <t>54,16%</t>
-  </si>
-  <si>
     <t>63,37%</t>
   </si>
   <si>
@@ -173,9 +302,6 @@
     <t>11,88%</t>
   </si>
   <si>
-    <t>9,2%</t>
-  </si>
-  <si>
     <t>6,6%</t>
   </si>
   <si>
@@ -284,9 +410,6 @@
     <t>0,37%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>1,66%</t>
   </si>
   <si>
@@ -353,414 +476,411 @@
     <t>Granada</t>
   </si>
   <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>10,68%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>14,95%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>8,5%</t>
+  </si>
+  <si>
+    <t>13,39%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>50,65%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>58,01%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>62,97%</t>
+  </si>
+  <si>
+    <t>57,12%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>0,25%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>38,46%</t>
+  </si>
+  <si>
+    <t>33,11%</t>
+  </si>
+  <si>
+    <t>44,39%</t>
+  </si>
+  <si>
+    <t>37,46%</t>
+  </si>
+  <si>
+    <t>32,84%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>37,95%</t>
+  </si>
+  <si>
+    <t>34,11%</t>
+  </si>
+  <si>
+    <t>41,77%</t>
+  </si>
+  <si>
+    <t>Huelva</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,76%</t>
+  </si>
+  <si>
+    <t>66,05%</t>
+  </si>
+  <si>
+    <t>58,41%</t>
+  </si>
+  <si>
+    <t>72,87%</t>
+  </si>
+  <si>
+    <t>65,34%</t>
+  </si>
+  <si>
+    <t>58,2%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>60,5%</t>
+  </si>
+  <si>
+    <t>70,39%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>30,44%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>38,18%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>39,91%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>26,41%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>Jaen</t>
   </si>
   <si>
     <t>7,76%</t>
   </si>
   <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>12,36%</t>
-  </si>
-  <si>
-    <t>58,47%</t>
-  </si>
-  <si>
-    <t>53,98%</t>
-  </si>
-  <si>
-    <t>62,66%</t>
-  </si>
-  <si>
-    <t>59,09%</t>
-  </si>
-  <si>
-    <t>55,14%</t>
-  </si>
-  <si>
-    <t>62,96%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>55,79%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>1,89%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>0,14%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,23%</t>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>11,6%</t>
+  </si>
+  <si>
+    <t>12,47%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>16,75%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>67,44%</t>
+  </si>
+  <si>
+    <t>78,76%</t>
+  </si>
+  <si>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>65,51%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>68,13%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>0%</t>
   </si>
   <si>
     <t>0,73%</t>
   </si>
   <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>6,24%</t>
+  </si>
+  <si>
+    <t>14,23%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>9,89%</t>
+  </si>
+  <si>
+    <t>15,57%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,2%</t>
+  </si>
+  <si>
+    <t>26,89%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>26,64%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>Malaga</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>12,51%</t>
   </si>
   <si>
     <t>9,64%</t>
   </si>
   <si>
-    <t>34,3%</t>
-  </si>
-  <si>
-    <t>30,4%</t>
-  </si>
-  <si>
-    <t>38,53%</t>
-  </si>
-  <si>
-    <t>35,43%</t>
-  </si>
-  <si>
-    <t>31,66%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>34,86%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>37,78%</t>
-  </si>
-  <si>
-    <t>Huelva</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>10,09%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,76%</t>
-  </si>
-  <si>
-    <t>66,05%</t>
-  </si>
-  <si>
-    <t>58,41%</t>
-  </si>
-  <si>
-    <t>72,87%</t>
-  </si>
-  <si>
-    <t>65,34%</t>
-  </si>
-  <si>
-    <t>58,2%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
-  </si>
-  <si>
-    <t>65,69%</t>
-  </si>
-  <si>
-    <t>60,5%</t>
-  </si>
-  <si>
-    <t>70,39%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>3,78%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>30,44%</t>
-  </si>
-  <si>
-    <t>24,04%</t>
-  </si>
-  <si>
-    <t>38,18%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>39,91%</t>
-  </si>
-  <si>
-    <t>31,13%</t>
-  </si>
-  <si>
-    <t>26,41%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>Jaen</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>11,6%</t>
-  </si>
-  <si>
-    <t>12,47%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>16,75%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>13,21%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>67,44%</t>
-  </si>
-  <si>
-    <t>78,76%</t>
-  </si>
-  <si>
-    <t>71,29%</t>
-  </si>
-  <si>
-    <t>65,51%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>72,3%</t>
-  </si>
-  <si>
-    <t>68,13%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>1,88%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>14,23%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>26,89%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
-  </si>
-  <si>
-    <t>Malaga</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>12,51%</t>
-  </si>
-  <si>
     <t>7,98%</t>
   </si>
   <si>
@@ -872,9 +992,6 @@
     <t>22,04%</t>
   </si>
   <si>
-    <t>27,07%</t>
-  </si>
-  <si>
     <t>Sevilla</t>
   </si>
   <si>
@@ -923,9 +1040,6 @@
     <t>51,89%</t>
   </si>
   <si>
-    <t>57,12%</t>
-  </si>
-  <si>
     <t>1,51%</t>
   </si>
   <si>
@@ -933,9 +1047,6 @@
   </si>
   <si>
     <t>2,66%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
   </si>
   <si>
     <t>1,47%</t>
@@ -1536,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22B192D-BEDB-4109-8E38-71413807DDDF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B5BE13C-6334-46A5-8AE5-0A1AD081A2C2}">
   <dimension ref="A1:K49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1627,1329 +1738,1329 @@
         <v>9</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
+        <v>31</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="H6" s="7" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="I6" s="7" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>9</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>9</v>
+        <v>42</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="I7" s="7" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>9</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>50</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
+        <v>51</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>9</v>
+        <v>53</v>
       </c>
       <c r="H8" s="7" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
       <c r="I8" s="7" t="s">
-        <v>9</v>
+        <v>55</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>9</v>
+        <v>56</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>16</v>
+        <v>60</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>62</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>19</v>
+        <v>63</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I9" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>27</v>
+        <v>71</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="I11" s="7" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>47</v>
+        <v>89</v>
       </c>
       <c r="I12" s="7" t="s">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>49</v>
+        <v>91</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>51</v>
+        <v>93</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>52</v>
+        <v>94</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>53</v>
+        <v>95</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="H13" s="7" t="s">
-        <v>56</v>
+        <v>98</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>58</v>
+        <v>100</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>59</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>60</v>
+        <v>102</v>
       </c>
       <c r="B14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>65</v>
+        <v>107</v>
       </c>
       <c r="H14" s="7" t="s">
-        <v>66</v>
+        <v>108</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>69</v>
+        <v>111</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>72</v>
+        <v>114</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>73</v>
+        <v>115</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>75</v>
+        <v>117</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>76</v>
+        <v>118</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>77</v>
+        <v>119</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="H16" s="7" t="s">
-        <v>83</v>
+        <v>124</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>84</v>
+        <v>125</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>81</v>
+        <v>123</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>86</v>
+        <v>127</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>87</v>
+        <v>128</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>89</v>
+        <v>130</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="H17" s="7" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>93</v>
+        <v>134</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>94</v>
+        <v>135</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>95</v>
+        <v>136</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>96</v>
+        <v>137</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>97</v>
+        <v>138</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
+        <v>139</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>99</v>
+        <v>140</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>100</v>
+        <v>141</v>
       </c>
       <c r="I18" s="7" t="s">
-        <v>101</v>
+        <v>142</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>102</v>
+        <v>143</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>103</v>
+        <v>144</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>104</v>
+        <v>145</v>
       </c>
       <c r="B19" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>106</v>
+        <v>147</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>23</v>
+        <v>148</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>107</v>
+        <v>149</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>108</v>
+        <v>150</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>109</v>
+        <v>151</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>110</v>
+        <v>152</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>111</v>
+        <v>153</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>112</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>113</v>
+        <v>155</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>114</v>
+        <v>156</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>157</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>158</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>118</v>
+        <v>160</v>
       </c>
       <c r="I20" s="7" t="s">
-        <v>119</v>
+        <v>161</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>120</v>
+        <v>162</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>121</v>
+        <v>163</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>123</v>
+        <v>165</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>166</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>167</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>126</v>
+        <v>33</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>127</v>
+        <v>168</v>
       </c>
       <c r="I21" s="7" t="s">
-        <v>128</v>
+        <v>169</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>129</v>
+        <v>170</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>130</v>
+        <v>171</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>131</v>
+        <v>172</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>132</v>
+        <v>173</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>174</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>176</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>136</v>
+        <v>177</v>
       </c>
       <c r="I22" s="7" t="s">
-        <v>137</v>
+        <v>178</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>138</v>
+        <v>179</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>141</v>
+        <v>182</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="H23" s="7" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="I23" s="7" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>152</v>
+        <v>193</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>153</v>
+        <v>194</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>61</v>
+        <v>103</v>
       </c>
       <c r="H24" s="7" t="s">
-        <v>154</v>
+        <v>195</v>
       </c>
       <c r="I24" s="7" t="s">
-        <v>155</v>
+        <v>196</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>156</v>
+        <v>197</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>157</v>
+        <v>198</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>158</v>
+        <v>199</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>159</v>
+        <v>200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>202</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>203</v>
       </c>
       <c r="H25" s="7" t="s">
-        <v>163</v>
+        <v>204</v>
       </c>
       <c r="I25" s="7" t="s">
-        <v>164</v>
+        <v>205</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>165</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>166</v>
+        <v>207</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>208</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>209</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="I26" s="7" t="s">
-        <v>171</v>
+        <v>211</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>212</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>173</v>
+        <v>213</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>174</v>
+        <v>214</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>175</v>
+        <v>215</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>176</v>
+        <v>216</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>177</v>
+        <v>217</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="I27" s="7" t="s">
-        <v>179</v>
+        <v>219</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>180</v>
+        <v>220</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>181</v>
+        <v>221</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>182</v>
+        <v>222</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>183</v>
+        <v>223</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>184</v>
+        <v>224</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>185</v>
+        <v>225</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>186</v>
+        <v>226</v>
       </c>
       <c r="H28" s="7" t="s">
-        <v>187</v>
+        <v>227</v>
       </c>
       <c r="I28" s="7" t="s">
-        <v>188</v>
+        <v>228</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>189</v>
+        <v>229</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>190</v>
+        <v>230</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>191</v>
+        <v>231</v>
       </c>
       <c r="B29" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>108</v>
+        <v>232</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>192</v>
+        <v>233</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>193</v>
+        <v>234</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>194</v>
+        <v>235</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>195</v>
+        <v>236</v>
       </c>
       <c r="H29" s="7" t="s">
-        <v>196</v>
+        <v>237</v>
       </c>
       <c r="I29" s="7" t="s">
-        <v>197</v>
+        <v>15</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>198</v>
+        <v>238</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>199</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>201</v>
+        <v>241</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>202</v>
+        <v>242</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>203</v>
+        <v>243</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>204</v>
+        <v>244</v>
       </c>
       <c r="H30" s="7" t="s">
-        <v>205</v>
+        <v>245</v>
       </c>
       <c r="I30" s="7" t="s">
-        <v>206</v>
+        <v>246</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>207</v>
+        <v>247</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>208</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>209</v>
+        <v>249</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>210</v>
+        <v>250</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>211</v>
+        <v>251</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>82</v>
+        <v>33</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>212</v>
+        <v>252</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>129</v>
+        <v>253</v>
       </c>
       <c r="I31" s="7" t="s">
-        <v>213</v>
+        <v>165</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>215</v>
+        <v>255</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>216</v>
+        <v>256</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>217</v>
+        <v>257</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>218</v>
+        <v>258</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>219</v>
+        <v>259</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>220</v>
+        <v>260</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>221</v>
+        <v>261</v>
       </c>
       <c r="I32" s="7" t="s">
-        <v>222</v>
+        <v>262</v>
       </c>
       <c r="J32" s="7" t="s">
-        <v>223</v>
+        <v>263</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>224</v>
+        <v>264</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>225</v>
+        <v>265</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>226</v>
+        <v>266</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>227</v>
+        <v>267</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>228</v>
+        <v>268</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>229</v>
+        <v>269</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>230</v>
+        <v>270</v>
       </c>
       <c r="I33" s="7" t="s">
-        <v>231</v>
+        <v>271</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>232</v>
+        <v>272</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>233</v>
+        <v>273</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>234</v>
+        <v>274</v>
       </c>
       <c r="B34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="7" t="s">
-        <v>235</v>
+        <v>275</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>236</v>
+        <v>276</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>237</v>
+        <v>277</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>238</v>
+        <v>278</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="H34" s="7" t="s">
-        <v>240</v>
+        <v>279</v>
       </c>
       <c r="I34" s="7" t="s">
-        <v>139</v>
+        <v>280</v>
       </c>
       <c r="J34" s="7" t="s">
-        <v>241</v>
+        <v>281</v>
       </c>
       <c r="K34" s="7" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7" t="s">
-        <v>243</v>
+        <v>283</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>244</v>
+        <v>284</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>245</v>
+        <v>285</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>246</v>
+        <v>286</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="H35" s="7" t="s">
-        <v>248</v>
+        <v>288</v>
       </c>
       <c r="I35" s="7" t="s">
-        <v>249</v>
+        <v>289</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>250</v>
+        <v>290</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>251</v>
+        <v>291</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C36" s="7" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>253</v>
+        <v>293</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>254</v>
+        <v>294</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>255</v>
+        <v>295</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>256</v>
+        <v>296</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>257</v>
+        <v>297</v>
       </c>
       <c r="I36" s="7" t="s">
-        <v>258</v>
+        <v>298</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>259</v>
+        <v>299</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>260</v>
+        <v>300</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C37" s="7" t="s">
-        <v>261</v>
+        <v>301</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>262</v>
+        <v>302</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>263</v>
+        <v>303</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>265</v>
+        <v>305</v>
       </c>
       <c r="H37" s="7" t="s">
-        <v>266</v>
+        <v>306</v>
       </c>
       <c r="I37" s="7" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="J37" s="7" t="s">
-        <v>268</v>
+        <v>308</v>
       </c>
       <c r="K37" s="7" t="s">
-        <v>269</v>
+        <v>309</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C38" s="7" t="s">
-        <v>270</v>
+        <v>310</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>271</v>
+        <v>311</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>272</v>
+        <v>312</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>273</v>
+        <v>313</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>274</v>
+        <v>314</v>
       </c>
       <c r="H38" s="7" t="s">
-        <v>275</v>
+        <v>315</v>
       </c>
       <c r="I38" s="7" t="s">
-        <v>276</v>
+        <v>316</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>277</v>
+        <v>317</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>278</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>279</v>
+        <v>318</v>
       </c>
       <c r="B39" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="7" t="s">
-        <v>280</v>
+        <v>319</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>281</v>
+        <v>320</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>282</v>
+        <v>321</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>283</v>
+        <v>322</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>178</v>
+        <v>218</v>
       </c>
       <c r="H39" s="7" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="I39" s="7" t="s">
-        <v>284</v>
+        <v>323</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>285</v>
+        <v>324</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="B40" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C40" s="7" t="s">
-        <v>287</v>
+        <v>326</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>288</v>
+        <v>327</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>289</v>
+        <v>328</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>290</v>
+        <v>329</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>291</v>
+        <v>330</v>
       </c>
       <c r="H40" s="7" t="s">
-        <v>292</v>
+        <v>331</v>
       </c>
       <c r="I40" s="7" t="s">
-        <v>293</v>
+        <v>332</v>
       </c>
       <c r="J40" s="7" t="s">
-        <v>294</v>
+        <v>333</v>
       </c>
       <c r="K40" s="7" t="s">
-        <v>295</v>
+        <v>161</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="B41" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C41" s="7" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="E41" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="I41" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="F41" s="7" t="s">
-        <v>253</v>
-      </c>
-      <c r="G41" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H41" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="I41" s="7" t="s">
-        <v>258</v>
-      </c>
       <c r="J41" s="7" t="s">
-        <v>301</v>
+        <v>338</v>
       </c>
       <c r="K41" s="7" t="s">
-        <v>302</v>
+        <v>339</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="B42" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C42" s="7" t="s">
-        <v>303</v>
+        <v>340</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>304</v>
+        <v>341</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>286</v>
+        <v>325</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>305</v>
+        <v>342</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>306</v>
+        <v>343</v>
       </c>
       <c r="H42" s="7" t="s">
-        <v>307</v>
+        <v>344</v>
       </c>
       <c r="I42" s="7" t="s">
-        <v>308</v>
+        <v>345</v>
       </c>
       <c r="J42" s="7" t="s">
-        <v>309</v>
+        <v>346</v>
       </c>
       <c r="K42" s="7" t="s">
-        <v>310</v>
+        <v>347</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="B43" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C43" s="7" t="s">
-        <v>311</v>
+        <v>348</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>312</v>
+        <v>349</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>313</v>
+        <v>350</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>314</v>
+        <v>351</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>315</v>
+        <v>352</v>
       </c>
       <c r="H43" s="7" t="s">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="I43" s="7" t="s">
-        <v>317</v>
+        <v>354</v>
       </c>
       <c r="J43" s="7" t="s">
-        <v>318</v>
+        <v>355</v>
       </c>
       <c r="K43" s="7" t="s">
-        <v>319</v>
+        <v>356</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
@@ -2960,168 +3071,168 @@
         <v>8</v>
       </c>
       <c r="C44" s="7" t="s">
-        <v>320</v>
+        <v>357</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>321</v>
+        <v>358</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>322</v>
+        <v>359</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>323</v>
+        <v>360</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>324</v>
+        <v>361</v>
       </c>
       <c r="H44" s="7" t="s">
-        <v>325</v>
+        <v>362</v>
       </c>
       <c r="I44" s="7" t="s">
-        <v>326</v>
+        <v>363</v>
       </c>
       <c r="J44" s="7" t="s">
-        <v>327</v>
+        <v>364</v>
       </c>
       <c r="K44" s="7" t="s">
-        <v>328</v>
+        <v>365</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1"/>
       <c r="B45" s="5" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C45" s="7" t="s">
-        <v>329</v>
+        <v>366</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>330</v>
+        <v>367</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>331</v>
+        <v>368</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>332</v>
+        <v>369</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>333</v>
+        <v>370</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>334</v>
+        <v>371</v>
       </c>
       <c r="I45" s="7" t="s">
-        <v>335</v>
+        <v>372</v>
       </c>
       <c r="J45" s="7" t="s">
-        <v>336</v>
+        <v>373</v>
       </c>
       <c r="K45" s="7" t="s">
-        <v>337</v>
+        <v>374</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1"/>
       <c r="B46" s="5" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C46" s="7" t="s">
-        <v>78</v>
+        <v>120</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>338</v>
+        <v>375</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>339</v>
+        <v>376</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>79</v>
+        <v>121</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>214</v>
+        <v>254</v>
       </c>
       <c r="H46" s="7" t="s">
-        <v>340</v>
+        <v>377</v>
       </c>
       <c r="I46" s="7" t="s">
-        <v>341</v>
+        <v>378</v>
       </c>
       <c r="J46" s="7" t="s">
-        <v>342</v>
+        <v>379</v>
       </c>
       <c r="K46" s="7" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1"/>
       <c r="B47" s="5" t="s">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="C47" s="7" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="H47" s="7" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="I47" s="7" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="J47" s="7" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
       <c r="K47" s="7" t="s">
-        <v>352</v>
+        <v>389</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1"/>
       <c r="B48" s="5" t="s">
-        <v>13</v>
+        <v>48</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>353</v>
+        <v>390</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>354</v>
+        <v>391</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>355</v>
+        <v>392</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>356</v>
+        <v>393</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>357</v>
+        <v>394</v>
       </c>
       <c r="H48" s="7" t="s">
-        <v>358</v>
+        <v>395</v>
       </c>
       <c r="I48" s="7" t="s">
-        <v>359</v>
+        <v>396</v>
       </c>
       <c r="J48" s="7" t="s">
-        <v>360</v>
+        <v>397</v>
       </c>
       <c r="K48" s="7" t="s">
-        <v>361</v>
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>362</v>
+        <v>399</v>
       </c>
     </row>
   </sheetData>
